--- a/src/evaluation/learning_stage_experiment_results_binary.xlsx
+++ b/src/evaluation/learning_stage_experiment_results_binary.xlsx
@@ -533,28 +533,28 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I2" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K2" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M2" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="3">
@@ -580,28 +580,28 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I3" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K3" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M3" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="4">
@@ -627,28 +627,28 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I4" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K4" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M4" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="5">
@@ -674,28 +674,28 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I5" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K5" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M5" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="6">
@@ -721,28 +721,28 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I6" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K6" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M6" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="7">
@@ -768,28 +768,28 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I7" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K7" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M7" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="8">
@@ -815,28 +815,28 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I8" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K8" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M8" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="9">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I9" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K9" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M9" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="10">
@@ -909,28 +909,28 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I10" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K10" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M10" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="11">
@@ -956,28 +956,28 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I11" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K11" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M11" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="12">
@@ -1003,28 +1003,28 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K12" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M12" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="13">
@@ -1050,28 +1050,28 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I13" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K13" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M13" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="14">
@@ -1097,28 +1097,28 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I14" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K14" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M14" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="15">
@@ -1144,28 +1144,28 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K15" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M15" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="16">
@@ -1191,28 +1191,28 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I16" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K16" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M16" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="17">
@@ -1238,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I17" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K17" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M17" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="18">
@@ -1285,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K18" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M18" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="19">
@@ -1332,28 +1332,28 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I19" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K19" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M19" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="20">
@@ -1379,28 +1379,28 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I20" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K20" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M20" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="21">
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>51</v>
+        <v>233.8330938406241</v>
       </c>
       <c r="I21" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>91.48620299564914</v>
       </c>
       <c r="K21" t="n">
-        <v>22.35467714963814</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>142.346890844975</v>
       </c>
       <c r="M21" t="n">
-        <v>3.971536137005258</v>
+        <v>372.7226294431001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04420572465093239</v>
+        <v>0.2322338789504535</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.09870913054695091</v>
+        <v>0.1911115029373</v>
       </c>
     </row>
     <row r="22">
@@ -1473,28 +1473,28 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I22" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J22" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M22" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N22" t="n">
         <v>0.5</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="23">
@@ -1520,28 +1520,28 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I23" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J23" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M23" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N23" t="n">
         <v>0.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="24">
@@ -1567,28 +1567,28 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I24" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J24" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M24" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N24" t="n">
         <v>0.5</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="25">
@@ -1614,28 +1614,28 @@
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I25" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J25" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K25" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M25" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N25" t="n">
         <v>0.5</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="26">
@@ -1661,28 +1661,28 @@
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I26" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J26" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M26" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N26" t="n">
         <v>0.5</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="27">
@@ -1708,28 +1708,28 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I27" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J27" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K27" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M27" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N27" t="n">
         <v>0.5</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="28">
@@ -1755,28 +1755,28 @@
         <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I28" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J28" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K28" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M28" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N28" t="n">
         <v>0.5</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="29">
@@ -1802,28 +1802,28 @@
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I29" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J29" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K29" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M29" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N29" t="n">
         <v>0.5</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="30">
@@ -1849,28 +1849,28 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I30" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J30" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M30" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N30" t="n">
         <v>0.5</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="31">
@@ -1896,28 +1896,28 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I31" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J31" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M31" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N31" t="n">
         <v>0.5</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="32">
@@ -1943,28 +1943,28 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I32" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J32" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K32" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M32" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N32" t="n">
         <v>0.5</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="33">
@@ -1990,28 +1990,28 @@
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I33" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J33" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M33" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N33" t="n">
         <v>0.5</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="34">
@@ -2037,28 +2037,28 @@
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I34" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J34" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M34" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N34" t="n">
         <v>0.5</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="35">
@@ -2084,28 +2084,28 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I35" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J35" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K35" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M35" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N35" t="n">
         <v>0.5</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="36">
@@ -2131,28 +2131,28 @@
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I36" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J36" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K36" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M36" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N36" t="n">
         <v>0.5</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="37">
@@ -2178,28 +2178,28 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I37" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J37" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K37" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M37" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N37" t="n">
         <v>0.5</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="38">
@@ -2225,28 +2225,28 @@
         <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I38" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J38" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K38" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M38" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N38" t="n">
         <v>0.5</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="39">
@@ -2272,28 +2272,28 @@
         <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I39" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J39" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K39" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M39" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N39" t="n">
         <v>0.5</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="40">
@@ -2319,28 +2319,28 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I40" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J40" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M40" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N40" t="n">
         <v>0.5</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="41">
@@ -2366,28 +2366,28 @@
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>31.34081960127718</v>
+        <v>75.21307430395831</v>
       </c>
       <c r="I41" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="J41" t="n">
-        <v>19.56054640085145</v>
+        <v>0.1</v>
       </c>
       <c r="K41" t="n">
-        <v>5.829256141053928</v>
+        <v>11.75812947752388</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>37.53153715197916</v>
       </c>
       <c r="M41" t="n">
-        <v>3.238345584482976</v>
+        <v>40.35953118954419</v>
       </c>
       <c r="N41" t="n">
         <v>0.5</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2742082360421058</v>
+        <v>0.07242948743213523</v>
       </c>
     </row>
     <row r="42">
@@ -2413,28 +2413,28 @@
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I42" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J42" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N42" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="43">
@@ -2460,28 +2460,28 @@
         <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I43" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J43" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M43" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N43" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="44">
@@ -2507,28 +2507,28 @@
         <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I44" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J44" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K44" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N44" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="45">
@@ -2554,28 +2554,28 @@
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I45" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J45" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M45" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N45" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="46">
@@ -2601,28 +2601,28 @@
         <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I46" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J46" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N46" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="47">
@@ -2648,28 +2648,28 @@
         <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I47" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J47" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M47" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N47" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="48">
@@ -2695,28 +2695,28 @@
         <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I48" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J48" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N48" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="49">
@@ -2742,28 +2742,28 @@
         <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I49" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J49" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K49" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N49" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="50">
@@ -2789,28 +2789,28 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I50" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J50" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K50" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N50" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="51">
@@ -2836,28 +2836,28 @@
         <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I51" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J51" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K51" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M51" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N51" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="52">
@@ -2883,28 +2883,28 @@
         <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I52" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J52" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K52" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M52" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N52" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="53">
@@ -2930,28 +2930,28 @@
         <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I53" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J53" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K53" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M53" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N53" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="54">
@@ -2977,28 +2977,28 @@
         <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I54" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J54" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K54" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M54" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N54" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="55">
@@ -3024,28 +3024,28 @@
         <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I55" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J55" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K55" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N55" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="56">
@@ -3071,28 +3071,28 @@
         <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I56" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J56" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M56" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N56" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="57">
@@ -3118,28 +3118,28 @@
         <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I57" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J57" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N57" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="58">
@@ -3165,28 +3165,28 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I58" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J58" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K58" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N58" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="59">
@@ -3212,28 +3212,28 @@
         <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I59" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J59" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K59" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N59" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="60">
@@ -3259,28 +3259,28 @@
         <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I60" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J60" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K60" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N60" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="61">
@@ -3306,28 +3306,28 @@
         <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>21.12600167104402</v>
+        <v>141.3415620223159</v>
       </c>
       <c r="I61" t="n">
-        <v>19.41096190844638</v>
+        <v>141.8412862495683</v>
       </c>
       <c r="J61" t="n">
-        <v>8.78380958276651</v>
+        <v>0.1</v>
       </c>
       <c r="K61" t="n">
-        <v>3.101270937692111</v>
+        <v>17.42259556224051</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>56.44662480892635</v>
       </c>
       <c r="M61" t="n">
-        <v>6</v>
+        <v>45.77107840133669</v>
       </c>
       <c r="N61" t="n">
-        <v>0.457838249823824</v>
+        <v>0.5</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.09347292446995864</v>
       </c>
     </row>
     <row r="62">
@@ -3353,28 +3353,28 @@
         <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I62" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J62" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K62" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M62" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N62" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="63">
@@ -3400,28 +3400,28 @@
         <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I63" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J63" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K63" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M63" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="64">
@@ -3447,28 +3447,28 @@
         <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I64" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J64" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K64" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N64" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="65">
@@ -3494,28 +3494,28 @@
         <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I65" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J65" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K65" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M65" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N65" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="66">
@@ -3541,28 +3541,28 @@
         <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I66" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J66" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K66" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N66" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="67">
@@ -3588,28 +3588,28 @@
         <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I67" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J67" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M67" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N67" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="68">
@@ -3635,28 +3635,28 @@
         <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I68" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J68" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K68" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="69">
@@ -3682,28 +3682,28 @@
         <v>4</v>
       </c>
       <c r="H69" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I69" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J69" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K69" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M69" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N69" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="70">
@@ -3729,28 +3729,28 @@
         <v>4</v>
       </c>
       <c r="H70" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I70" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J70" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K70" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="71">
@@ -3776,28 +3776,28 @@
         <v>4</v>
       </c>
       <c r="H71" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I71" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J71" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K71" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N71" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="72">
@@ -3823,28 +3823,28 @@
         <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I72" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J72" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K72" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M72" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N72" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="73">
@@ -3870,28 +3870,28 @@
         <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I73" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J73" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K73" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="74">
@@ -3917,28 +3917,28 @@
         <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I74" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J74" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M74" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N74" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="75">
@@ -3964,28 +3964,28 @@
         <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I75" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J75" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K75" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M75" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N75" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="76">
@@ -4011,28 +4011,28 @@
         <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I76" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J76" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M76" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N76" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="77">
@@ -4058,28 +4058,28 @@
         <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I77" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J77" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K77" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="78">
@@ -4105,28 +4105,28 @@
         <v>4</v>
       </c>
       <c r="H78" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I78" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J78" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K78" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M78" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="79">
@@ -4152,28 +4152,28 @@
         <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I79" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J79" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K79" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="80">
@@ -4199,28 +4199,28 @@
         <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I80" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J80" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="81">
@@ -4246,28 +4246,28 @@
         <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>18.07694764450459</v>
+        <v>129.1925348260366</v>
       </c>
       <c r="I81" t="n">
-        <v>36.59316051247072</v>
+        <v>278.8678612627742</v>
       </c>
       <c r="J81" t="n">
-        <v>7.426793403065282</v>
+        <v>0.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.73952157106091</v>
+        <v>15.85190416832008</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>51.58701393041463</v>
       </c>
       <c r="M81" t="n">
-        <v>6</v>
+        <v>46.92118424580372</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4505374270235395</v>
+        <v>0.5</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.04983384717317412</v>
+        <v>0.4462610194200086</v>
       </c>
     </row>
     <row r="82">
@@ -4293,28 +4293,28 @@
         <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I82" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J82" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K82" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M82" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O82" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="83">
@@ -4340,28 +4340,28 @@
         <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I83" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J83" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K83" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M83" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O83" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="84">
@@ -4387,28 +4387,28 @@
         <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I84" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J84" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K84" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M84" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O84" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="85">
@@ -4434,28 +4434,28 @@
         <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I85" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J85" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K85" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M85" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="86">
@@ -4481,28 +4481,28 @@
         <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I86" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J86" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K86" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M86" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O86" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="87">
@@ -4528,28 +4528,28 @@
         <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I87" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J87" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K87" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M87" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O87" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="88">
@@ -4575,28 +4575,28 @@
         <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I88" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J88" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K88" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M88" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O88" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="89">
@@ -4622,28 +4622,28 @@
         <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I89" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J89" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K89" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M89" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O89" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="90">
@@ -4669,28 +4669,28 @@
         <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I90" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J90" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K90" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M90" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="91">
@@ -4716,28 +4716,28 @@
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I91" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J91" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K91" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M91" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N91" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="92">
@@ -4763,28 +4763,28 @@
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I92" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J92" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K92" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M92" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="93">
@@ -4810,28 +4810,28 @@
         <v>5</v>
       </c>
       <c r="H93" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I93" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J93" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K93" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L93" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M93" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="94">
@@ -4857,28 +4857,28 @@
         <v>5</v>
       </c>
       <c r="H94" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I94" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J94" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K94" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M94" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="95">
@@ -4904,28 +4904,28 @@
         <v>5</v>
       </c>
       <c r="H95" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I95" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J95" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M95" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="96">
@@ -4951,28 +4951,28 @@
         <v>5</v>
       </c>
       <c r="H96" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I96" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J96" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K96" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M96" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="97">
@@ -4998,28 +4998,28 @@
         <v>5</v>
       </c>
       <c r="H97" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I97" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J97" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K97" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M97" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O97" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="98">
@@ -5045,28 +5045,28 @@
         <v>5</v>
       </c>
       <c r="H98" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I98" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J98" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K98" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M98" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O98" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="99">
@@ -5092,28 +5092,28 @@
         <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I99" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J99" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K99" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M99" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O99" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="100">
@@ -5139,28 +5139,28 @@
         <v>5</v>
       </c>
       <c r="H100" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I100" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J100" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K100" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M100" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O100" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="101">
@@ -5186,28 +5186,28 @@
         <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>11.12913905536051</v>
+        <v>12.58287283710124</v>
       </c>
       <c r="I101" t="n">
-        <v>55.20608242507173</v>
+        <v>62.72517309704827</v>
       </c>
       <c r="J101" t="n">
-        <v>4.640302546023527</v>
+        <v>0.1</v>
       </c>
       <c r="K101" t="n">
-        <v>1.753885150025664</v>
+        <v>1.909982378119951</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5114657736550418</v>
+        <v>4.943149134840495</v>
       </c>
       <c r="M101" t="n">
-        <v>5.475283945616432</v>
+        <v>6.141244089721843</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4585530791631757</v>
+        <v>0.5</v>
       </c>
       <c r="O101" t="n">
-        <v>0.04565438208707779</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="102">
@@ -5233,28 +5233,28 @@
         <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I102" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J102" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K102" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M102" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N102" t="n">
         <v>0.005</v>
       </c>
       <c r="O102" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="103">
@@ -5280,28 +5280,28 @@
         <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I103" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J103" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K103" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M103" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N103" t="n">
         <v>0.005</v>
       </c>
       <c r="O103" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="104">
@@ -5327,28 +5327,28 @@
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I104" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J104" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K104" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M104" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N104" t="n">
         <v>0.005</v>
       </c>
       <c r="O104" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="105">
@@ -5374,28 +5374,28 @@
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I105" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J105" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K105" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M105" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N105" t="n">
         <v>0.005</v>
       </c>
       <c r="O105" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="106">
@@ -5421,28 +5421,28 @@
         <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I106" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J106" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K106" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M106" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N106" t="n">
         <v>0.005</v>
       </c>
       <c r="O106" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="107">
@@ -5468,28 +5468,28 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I107" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J107" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K107" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M107" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N107" t="n">
         <v>0.005</v>
       </c>
       <c r="O107" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="108">
@@ -5515,28 +5515,28 @@
         <v>6</v>
       </c>
       <c r="H108" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I108" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J108" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K108" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M108" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N108" t="n">
         <v>0.005</v>
       </c>
       <c r="O108" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="109">
@@ -5562,28 +5562,28 @@
         <v>6</v>
       </c>
       <c r="H109" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I109" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J109" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K109" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M109" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N109" t="n">
         <v>0.005</v>
       </c>
       <c r="O109" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="110">
@@ -5609,28 +5609,28 @@
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I110" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J110" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K110" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M110" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N110" t="n">
         <v>0.005</v>
       </c>
       <c r="O110" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="111">
@@ -5656,28 +5656,28 @@
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I111" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J111" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K111" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M111" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N111" t="n">
         <v>0.005</v>
       </c>
       <c r="O111" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="112">
@@ -5703,28 +5703,28 @@
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I112" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J112" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K112" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M112" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N112" t="n">
         <v>0.005</v>
       </c>
       <c r="O112" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="113">
@@ -5750,28 +5750,28 @@
         <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I113" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J113" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K113" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M113" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N113" t="n">
         <v>0.005</v>
       </c>
       <c r="O113" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="114">
@@ -5797,28 +5797,28 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I114" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J114" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K114" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M114" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N114" t="n">
         <v>0.005</v>
       </c>
       <c r="O114" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="115">
@@ -5844,28 +5844,28 @@
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I115" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J115" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K115" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M115" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N115" t="n">
         <v>0.005</v>
       </c>
       <c r="O115" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="116">
@@ -5891,28 +5891,28 @@
         <v>6</v>
       </c>
       <c r="H116" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I116" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J116" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K116" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M116" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N116" t="n">
         <v>0.005</v>
       </c>
       <c r="O116" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="117">
@@ -5938,28 +5938,28 @@
         <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I117" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J117" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K117" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M117" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N117" t="n">
         <v>0.005</v>
       </c>
       <c r="O117" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="118">
@@ -5985,28 +5985,28 @@
         <v>6</v>
       </c>
       <c r="H118" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I118" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J118" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K118" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M118" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N118" t="n">
         <v>0.005</v>
       </c>
       <c r="O118" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="119">
@@ -6032,28 +6032,28 @@
         <v>6</v>
       </c>
       <c r="H119" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I119" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J119" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K119" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M119" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N119" t="n">
         <v>0.005</v>
       </c>
       <c r="O119" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="120">
@@ -6079,28 +6079,28 @@
         <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I120" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J120" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K120" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M120" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N120" t="n">
         <v>0.005</v>
       </c>
       <c r="O120" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="121">
@@ -6126,28 +6126,28 @@
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>7.724454746049052</v>
+        <v>15.37086908692508</v>
       </c>
       <c r="I121" t="n">
-        <v>24.99246362395291</v>
+        <v>41.57260542121568</v>
       </c>
       <c r="J121" t="n">
-        <v>4.672611812627461</v>
+        <v>0.1</v>
       </c>
       <c r="K121" t="n">
-        <v>1.684073870322546</v>
+        <v>1.90367435923546</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>5.081486385000026</v>
       </c>
       <c r="M121" t="n">
-        <v>2.840884507492818</v>
+        <v>4.836718348709627</v>
       </c>
       <c r="N121" t="n">
         <v>0.005</v>
       </c>
       <c r="O121" t="n">
-        <v>0.2915147918726065</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="122">
@@ -6173,28 +6173,28 @@
         <v>7</v>
       </c>
       <c r="H122" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I122" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J122" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K122" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M122" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N122" t="n">
         <v>0.005</v>
       </c>
       <c r="O122" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="123">
@@ -6220,28 +6220,28 @@
         <v>7</v>
       </c>
       <c r="H123" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I123" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J123" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K123" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M123" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N123" t="n">
         <v>0.005</v>
       </c>
       <c r="O123" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="124">
@@ -6267,28 +6267,28 @@
         <v>7</v>
       </c>
       <c r="H124" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I124" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J124" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K124" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M124" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N124" t="n">
         <v>0.005</v>
       </c>
       <c r="O124" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="125">
@@ -6314,28 +6314,28 @@
         <v>7</v>
       </c>
       <c r="H125" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I125" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J125" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K125" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M125" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N125" t="n">
         <v>0.005</v>
       </c>
       <c r="O125" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="126">
@@ -6361,28 +6361,28 @@
         <v>7</v>
       </c>
       <c r="H126" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I126" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J126" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K126" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M126" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N126" t="n">
         <v>0.005</v>
       </c>
       <c r="O126" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="127">
@@ -6408,28 +6408,28 @@
         <v>7</v>
       </c>
       <c r="H127" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I127" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J127" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K127" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M127" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N127" t="n">
         <v>0.005</v>
       </c>
       <c r="O127" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="128">
@@ -6455,28 +6455,28 @@
         <v>7</v>
       </c>
       <c r="H128" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I128" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J128" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K128" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M128" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N128" t="n">
         <v>0.005</v>
       </c>
       <c r="O128" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="129">
@@ -6502,28 +6502,28 @@
         <v>7</v>
       </c>
       <c r="H129" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I129" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J129" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K129" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M129" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N129" t="n">
         <v>0.005</v>
       </c>
       <c r="O129" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="130">
@@ -6549,28 +6549,28 @@
         <v>7</v>
       </c>
       <c r="H130" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I130" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J130" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K130" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M130" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N130" t="n">
         <v>0.005</v>
       </c>
       <c r="O130" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="131">
@@ -6596,28 +6596,28 @@
         <v>7</v>
       </c>
       <c r="H131" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I131" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J131" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K131" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M131" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N131" t="n">
         <v>0.005</v>
       </c>
       <c r="O131" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="132">
@@ -6643,28 +6643,28 @@
         <v>7</v>
       </c>
       <c r="H132" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I132" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J132" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K132" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M132" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N132" t="n">
         <v>0.005</v>
       </c>
       <c r="O132" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="133">
@@ -6690,28 +6690,28 @@
         <v>7</v>
       </c>
       <c r="H133" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I133" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J133" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K133" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M133" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N133" t="n">
         <v>0.005</v>
       </c>
       <c r="O133" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="134">
@@ -6737,28 +6737,28 @@
         <v>7</v>
       </c>
       <c r="H134" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I134" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J134" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K134" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M134" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N134" t="n">
         <v>0.005</v>
       </c>
       <c r="O134" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="135">
@@ -6784,28 +6784,28 @@
         <v>7</v>
       </c>
       <c r="H135" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I135" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J135" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K135" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M135" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N135" t="n">
         <v>0.005</v>
       </c>
       <c r="O135" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="136">
@@ -6831,28 +6831,28 @@
         <v>7</v>
       </c>
       <c r="H136" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I136" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J136" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K136" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M136" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N136" t="n">
         <v>0.005</v>
       </c>
       <c r="O136" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="137">
@@ -6878,28 +6878,28 @@
         <v>7</v>
       </c>
       <c r="H137" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I137" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J137" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K137" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M137" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N137" t="n">
         <v>0.005</v>
       </c>
       <c r="O137" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="138">
@@ -6925,28 +6925,28 @@
         <v>7</v>
       </c>
       <c r="H138" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I138" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J138" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K138" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M138" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N138" t="n">
         <v>0.005</v>
       </c>
       <c r="O138" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="139">
@@ -6972,28 +6972,28 @@
         <v>7</v>
       </c>
       <c r="H139" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I139" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J139" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K139" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M139" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N139" t="n">
         <v>0.005</v>
       </c>
       <c r="O139" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="140">
@@ -7019,28 +7019,28 @@
         <v>7</v>
       </c>
       <c r="H140" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I140" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J140" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K140" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M140" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N140" t="n">
         <v>0.005</v>
       </c>
       <c r="O140" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="141">
@@ -7066,28 +7066,28 @@
         <v>7</v>
       </c>
       <c r="H141" t="n">
-        <v>7.006323805379151</v>
+        <v>7.046950575596287</v>
       </c>
       <c r="I141" t="n">
-        <v>34.14473577268207</v>
+        <v>34.26155269280193</v>
       </c>
       <c r="J141" t="n">
-        <v>3.932023066153997</v>
+        <v>3.8714584552354</v>
       </c>
       <c r="K141" t="n">
-        <v>1.479943110619587</v>
+        <v>1.47721420619949</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>1.033865191902523</v>
       </c>
       <c r="M141" t="n">
-        <v>2.990890009334849</v>
+        <v>3.001847247499546</v>
       </c>
       <c r="N141" t="n">
         <v>0.005</v>
       </c>
       <c r="O141" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="142">
@@ -7113,28 +7113,28 @@
         <v>8</v>
       </c>
       <c r="H142" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I142" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J142" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K142" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M142" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N142" t="n">
         <v>0.005</v>
       </c>
       <c r="O142" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="143">
@@ -7160,28 +7160,28 @@
         <v>8</v>
       </c>
       <c r="H143" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I143" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J143" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K143" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M143" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N143" t="n">
         <v>0.005</v>
       </c>
       <c r="O143" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="144">
@@ -7207,28 +7207,28 @@
         <v>8</v>
       </c>
       <c r="H144" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I144" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J144" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K144" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M144" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N144" t="n">
         <v>0.005</v>
       </c>
       <c r="O144" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="145">
@@ -7254,28 +7254,28 @@
         <v>8</v>
       </c>
       <c r="H145" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I145" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J145" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K145" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M145" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N145" t="n">
         <v>0.005</v>
       </c>
       <c r="O145" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="146">
@@ -7301,28 +7301,28 @@
         <v>8</v>
       </c>
       <c r="H146" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I146" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J146" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K146" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M146" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N146" t="n">
         <v>0.005</v>
       </c>
       <c r="O146" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="147">
@@ -7348,28 +7348,28 @@
         <v>8</v>
       </c>
       <c r="H147" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I147" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J147" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K147" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M147" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N147" t="n">
         <v>0.005</v>
       </c>
       <c r="O147" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="148">
@@ -7395,28 +7395,28 @@
         <v>8</v>
       </c>
       <c r="H148" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I148" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J148" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K148" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L148" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M148" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N148" t="n">
         <v>0.005</v>
       </c>
       <c r="O148" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="149">
@@ -7442,28 +7442,28 @@
         <v>8</v>
       </c>
       <c r="H149" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I149" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J149" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K149" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L149" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M149" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N149" t="n">
         <v>0.005</v>
       </c>
       <c r="O149" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="150">
@@ -7489,28 +7489,28 @@
         <v>8</v>
       </c>
       <c r="H150" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I150" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J150" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K150" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M150" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N150" t="n">
         <v>0.005</v>
       </c>
       <c r="O150" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="151">
@@ -7536,28 +7536,28 @@
         <v>8</v>
       </c>
       <c r="H151" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I151" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J151" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K151" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M151" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N151" t="n">
         <v>0.005</v>
       </c>
       <c r="O151" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="152">
@@ -7583,28 +7583,28 @@
         <v>8</v>
       </c>
       <c r="H152" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I152" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J152" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K152" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M152" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N152" t="n">
         <v>0.005</v>
       </c>
       <c r="O152" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="153">
@@ -7630,28 +7630,28 @@
         <v>8</v>
       </c>
       <c r="H153" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I153" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J153" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K153" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M153" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N153" t="n">
         <v>0.005</v>
       </c>
       <c r="O153" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="154">
@@ -7677,28 +7677,28 @@
         <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I154" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J154" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K154" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L154" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M154" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N154" t="n">
         <v>0.005</v>
       </c>
       <c r="O154" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="155">
@@ -7724,28 +7724,28 @@
         <v>8</v>
       </c>
       <c r="H155" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I155" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J155" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K155" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L155" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M155" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N155" t="n">
         <v>0.005</v>
       </c>
       <c r="O155" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="156">
@@ -7771,28 +7771,28 @@
         <v>8</v>
       </c>
       <c r="H156" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I156" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J156" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K156" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M156" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N156" t="n">
         <v>0.005</v>
       </c>
       <c r="O156" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="157">
@@ -7818,28 +7818,28 @@
         <v>8</v>
       </c>
       <c r="H157" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I157" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J157" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K157" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M157" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N157" t="n">
         <v>0.005</v>
       </c>
       <c r="O157" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="158">
@@ -7865,28 +7865,28 @@
         <v>8</v>
       </c>
       <c r="H158" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I158" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J158" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K158" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L158" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M158" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N158" t="n">
         <v>0.005</v>
       </c>
       <c r="O158" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="159">
@@ -7912,28 +7912,28 @@
         <v>8</v>
       </c>
       <c r="H159" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I159" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J159" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K159" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L159" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M159" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N159" t="n">
         <v>0.005</v>
       </c>
       <c r="O159" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="160">
@@ -7959,28 +7959,28 @@
         <v>8</v>
       </c>
       <c r="H160" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I160" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J160" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K160" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L160" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M160" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N160" t="n">
         <v>0.005</v>
       </c>
       <c r="O160" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="161">
@@ -8006,28 +8006,28 @@
         <v>8</v>
       </c>
       <c r="H161" t="n">
-        <v>6.9149435083966</v>
+        <v>6.914951871090858</v>
       </c>
       <c r="I161" t="n">
-        <v>46.28852511970526</v>
+        <v>46.28854594883475</v>
       </c>
       <c r="J161" t="n">
-        <v>5.159163969521043</v>
+        <v>5.159088851116586</v>
       </c>
       <c r="K161" t="n">
-        <v>1.573190349899036</v>
+        <v>1.573166598176047</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5565474571983748</v>
+        <v>0.5565755211507638</v>
       </c>
       <c r="M161" t="n">
-        <v>3.267964845487606</v>
+        <v>3.267968140938816</v>
       </c>
       <c r="N161" t="n">
         <v>0.005</v>
       </c>
       <c r="O161" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="162">
@@ -8053,28 +8053,28 @@
         <v>9</v>
       </c>
       <c r="H162" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I162" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J162" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K162" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L162" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M162" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N162" t="n">
         <v>0.005</v>
       </c>
       <c r="O162" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="163">
@@ -8100,28 +8100,28 @@
         <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I163" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J163" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K163" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L163" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M163" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N163" t="n">
         <v>0.005</v>
       </c>
       <c r="O163" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="164">
@@ -8147,28 +8147,28 @@
         <v>9</v>
       </c>
       <c r="H164" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I164" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J164" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K164" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L164" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M164" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N164" t="n">
         <v>0.005</v>
       </c>
       <c r="O164" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="165">
@@ -8194,28 +8194,28 @@
         <v>9</v>
       </c>
       <c r="H165" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I165" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J165" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K165" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L165" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M165" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N165" t="n">
         <v>0.005</v>
       </c>
       <c r="O165" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="166">
@@ -8241,28 +8241,28 @@
         <v>9</v>
       </c>
       <c r="H166" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I166" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J166" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K166" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L166" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M166" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N166" t="n">
         <v>0.005</v>
       </c>
       <c r="O166" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="167">
@@ -8288,28 +8288,28 @@
         <v>9</v>
       </c>
       <c r="H167" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I167" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J167" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K167" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L167" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M167" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N167" t="n">
         <v>0.005</v>
       </c>
       <c r="O167" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="168">
@@ -8335,28 +8335,28 @@
         <v>9</v>
       </c>
       <c r="H168" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I168" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J168" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K168" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L168" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M168" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N168" t="n">
         <v>0.005</v>
       </c>
       <c r="O168" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="169">
@@ -8382,28 +8382,28 @@
         <v>9</v>
       </c>
       <c r="H169" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I169" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J169" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K169" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L169" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M169" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N169" t="n">
         <v>0.005</v>
       </c>
       <c r="O169" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="170">
@@ -8429,28 +8429,28 @@
         <v>9</v>
       </c>
       <c r="H170" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I170" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J170" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K170" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L170" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M170" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N170" t="n">
         <v>0.005</v>
       </c>
       <c r="O170" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="171">
@@ -8476,28 +8476,28 @@
         <v>9</v>
       </c>
       <c r="H171" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I171" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J171" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K171" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L171" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M171" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N171" t="n">
         <v>0.005</v>
       </c>
       <c r="O171" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="172">
@@ -8523,28 +8523,28 @@
         <v>9</v>
       </c>
       <c r="H172" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I172" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J172" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K172" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L172" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M172" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N172" t="n">
         <v>0.005</v>
       </c>
       <c r="O172" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="173">
@@ -8570,28 +8570,28 @@
         <v>9</v>
       </c>
       <c r="H173" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I173" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J173" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K173" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L173" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M173" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N173" t="n">
         <v>0.005</v>
       </c>
       <c r="O173" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="174">
@@ -8617,28 +8617,28 @@
         <v>9</v>
       </c>
       <c r="H174" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I174" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J174" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K174" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L174" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M174" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N174" t="n">
         <v>0.005</v>
       </c>
       <c r="O174" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="175">
@@ -8664,28 +8664,28 @@
         <v>9</v>
       </c>
       <c r="H175" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I175" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J175" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K175" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L175" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M175" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N175" t="n">
         <v>0.005</v>
       </c>
       <c r="O175" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="176">
@@ -8711,28 +8711,28 @@
         <v>9</v>
       </c>
       <c r="H176" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I176" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J176" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K176" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L176" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M176" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N176" t="n">
         <v>0.005</v>
       </c>
       <c r="O176" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="177">
@@ -8758,28 +8758,28 @@
         <v>9</v>
       </c>
       <c r="H177" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I177" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J177" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K177" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L177" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M177" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N177" t="n">
         <v>0.005</v>
       </c>
       <c r="O177" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="178">
@@ -8805,28 +8805,28 @@
         <v>9</v>
       </c>
       <c r="H178" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I178" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J178" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K178" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L178" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M178" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N178" t="n">
         <v>0.005</v>
       </c>
       <c r="O178" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="179">
@@ -8852,28 +8852,28 @@
         <v>9</v>
       </c>
       <c r="H179" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I179" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J179" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K179" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L179" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M179" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N179" t="n">
         <v>0.005</v>
       </c>
       <c r="O179" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="180">
@@ -8899,28 +8899,28 @@
         <v>9</v>
       </c>
       <c r="H180" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I180" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J180" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K180" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L180" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M180" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N180" t="n">
         <v>0.005</v>
       </c>
       <c r="O180" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="181">
@@ -8946,28 +8946,28 @@
         <v>9</v>
       </c>
       <c r="H181" t="n">
-        <v>7.73779645785112</v>
+        <v>7.737748462905683</v>
       </c>
       <c r="I181" t="n">
-        <v>63.03978475389606</v>
+        <v>63.0396777160887</v>
       </c>
       <c r="J181" t="n">
-        <v>5.633538424572907</v>
+        <v>5.633228229339505</v>
       </c>
       <c r="K181" t="n">
-        <v>1.683878532574299</v>
+        <v>1.683850382153646</v>
       </c>
       <c r="L181" t="n">
-        <v>0.669756216726387</v>
+        <v>0.669844732251095</v>
       </c>
       <c r="M181" t="n">
-        <v>3.728099154777838</v>
+        <v>3.728094401330663</v>
       </c>
       <c r="N181" t="n">
         <v>0.005</v>
       </c>
       <c r="O181" t="n">
-        <v>0.2234505969824401</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="182">
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="H182" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I182" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J182" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K182" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M182" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N182" t="n">
         <v>0.005</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="183">
@@ -9040,28 +9040,28 @@
         <v>10</v>
       </c>
       <c r="H183" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I183" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J183" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K183" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M183" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N183" t="n">
         <v>0.005</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="184">
@@ -9087,28 +9087,28 @@
         <v>10</v>
       </c>
       <c r="H184" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I184" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J184" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K184" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M184" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N184" t="n">
         <v>0.005</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="185">
@@ -9134,28 +9134,28 @@
         <v>10</v>
       </c>
       <c r="H185" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I185" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J185" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K185" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M185" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N185" t="n">
         <v>0.005</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="186">
@@ -9181,28 +9181,28 @@
         <v>10</v>
       </c>
       <c r="H186" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I186" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J186" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K186" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M186" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N186" t="n">
         <v>0.005</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="187">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="H187" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I187" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J187" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K187" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M187" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N187" t="n">
         <v>0.005</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="188">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="H188" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I188" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J188" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K188" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M188" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N188" t="n">
         <v>0.005</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="189">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="H189" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I189" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J189" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K189" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M189" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N189" t="n">
         <v>0.005</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="190">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="H190" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I190" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J190" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K190" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M190" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N190" t="n">
         <v>0.005</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="191">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="H191" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I191" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J191" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K191" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M191" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N191" t="n">
         <v>0.005</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="192">
@@ -9463,28 +9463,28 @@
         <v>10</v>
       </c>
       <c r="H192" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I192" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J192" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K192" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M192" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N192" t="n">
         <v>0.005</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="193">
@@ -9510,28 +9510,28 @@
         <v>10</v>
       </c>
       <c r="H193" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I193" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J193" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K193" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M193" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N193" t="n">
         <v>0.005</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="194">
@@ -9557,28 +9557,28 @@
         <v>10</v>
       </c>
       <c r="H194" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I194" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J194" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K194" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M194" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N194" t="n">
         <v>0.005</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="195">
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="H195" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I195" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J195" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K195" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M195" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N195" t="n">
         <v>0.005</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="196">
@@ -9651,28 +9651,28 @@
         <v>10</v>
       </c>
       <c r="H196" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I196" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J196" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K196" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M196" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N196" t="n">
         <v>0.005</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="197">
@@ -9698,28 +9698,28 @@
         <v>10</v>
       </c>
       <c r="H197" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I197" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J197" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K197" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M197" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N197" t="n">
         <v>0.005</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="198">
@@ -9745,28 +9745,28 @@
         <v>10</v>
       </c>
       <c r="H198" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I198" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J198" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K198" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M198" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N198" t="n">
         <v>0.005</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="199">
@@ -9792,28 +9792,28 @@
         <v>10</v>
       </c>
       <c r="H199" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I199" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J199" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K199" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M199" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N199" t="n">
         <v>0.005</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="200">
@@ -9839,28 +9839,28 @@
         <v>10</v>
       </c>
       <c r="H200" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I200" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J200" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K200" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M200" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N200" t="n">
         <v>0.005</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
     <row r="201">
@@ -9886,28 +9886,28 @@
         <v>10</v>
       </c>
       <c r="H201" t="n">
-        <v>5.618210422681288</v>
+        <v>7.325378036796588</v>
       </c>
       <c r="I201" t="n">
-        <v>28.42151804611119</v>
+        <v>33.69040173294047</v>
       </c>
       <c r="J201" t="n">
-        <v>1.579376130098043</v>
+        <v>0.3046669934714079</v>
       </c>
       <c r="K201" t="n">
-        <v>1.041207732421883</v>
+        <v>0.9700702872104708</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>1.747465619844266</v>
       </c>
       <c r="M201" t="n">
-        <v>1.655997757836775</v>
+        <v>1.979473745277679</v>
       </c>
       <c r="N201" t="n">
         <v>0.005</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1463783825719671</v>
+        <v>0.05911175857083146</v>
       </c>
     </row>
   </sheetData>
